--- a/biology/Médecine/1262_en_santé_et_médecine/1262_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1262_en_santé_et_médecine/1262_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1262_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1262_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1262 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1262_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1262_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation, à Avignon, de l'aumône de la rue de l'Épicerie, gérée par les apothicaires, dédiée à « l'assistance aux indigents » et « la célébration de services religieux pour les bienfaiteurs », et dont les régents sont chargés de l'inspection des apothicaireries[1].
-Fondée en 1224 dans la paroisse Saint-Gervais et Saint-Protais de Venise, la léproserie San Lazzaro dei Mendicanti (« Saint-Lazare des Mendiants ») est transportée sur l'île Saint-Lazare[2].
-Première mention de l'hôpital du Saint-Esprit de Wetzlar, en Allemagne, destiné à l'accueil des pauvres passants[3].
-Première mention de l'hospice de Chalamont, dans la Dombes, par Jean de Bourgogne, dit l'Antique[4].
-Première mention à Capestang, en Languedoc, de l'hôpital Saint-Jacques, situé  hors les murs sur la route de Béziers[5].
-Selon les statuts de la commune de Bologne, en Émilie, il suffit que les experts médicaux choisis par les juges soient « insoupçonnables et expérimentés[6] ».
-1261-1262 : fondation à Basingstoke, dans le Hampshire en Angleterre, par Walter de Merton (en), de l'hôpital Saint-Jean Baptiste (Hospital of St. John the Baptist), destiné à l'accueil des membres du clergé dans le besoin[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation, à Avignon, de l'aumône de la rue de l'Épicerie, gérée par les apothicaires, dédiée à « l'assistance aux indigents » et « la célébration de services religieux pour les bienfaiteurs », et dont les régents sont chargés de l'inspection des apothicaireries.
+Fondée en 1224 dans la paroisse Saint-Gervais et Saint-Protais de Venise, la léproserie San Lazzaro dei Mendicanti (« Saint-Lazare des Mendiants ») est transportée sur l'île Saint-Lazare.
+Première mention de l'hôpital du Saint-Esprit de Wetzlar, en Allemagne, destiné à l'accueil des pauvres passants.
+Première mention de l'hospice de Chalamont, dans la Dombes, par Jean de Bourgogne, dit l'Antique.
+Première mention à Capestang, en Languedoc, de l'hôpital Saint-Jacques, situé  hors les murs sur la route de Béziers.
+Selon les statuts de la commune de Bologne, en Émilie, il suffit que les experts médicaux choisis par les juges soient « insoupçonnables et expérimentés ».
+1261-1262 : fondation à Basingstoke, dans le Hampshire en Angleterre, par Walter de Merton (en), de l'hôpital Saint-Jean Baptiste (Hospital of St. John the Baptist), destiné à l'accueil des membres du clergé dans le besoin.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1262_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1262_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,15 +561,17 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Gérard, médecin, chanoine de Vitry, dans le Perthois, qui relève encore du comté de Champagne[8].
-Fl. Gilbert, médecin d'Agnès de Faucigny, comtesse de Savoie[8]
-Fl. Guy, médecin à Metz en Lorraine[8].
-1262 au plus tard : fl. Laurent, barbier à Châlons, en Champagne[9].
-1262-1264 : fl. Jean Beblequinus, chapelain et médecin du pape Urbain IV, peut-être parent de Jean Hellequin, médecin du roi de France Philippe le Bel[8].
-1262-1296 ? : fl. Jean, médecin à la cour de Pierre II, comte de Savoie[10].
-1262-1301 : fl. Félix de Trecis, médecin, neveu du pape Urbain IV, chanoine de Laon[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Gérard, médecin, chanoine de Vitry, dans le Perthois, qui relève encore du comté de Champagne.
+Fl. Gilbert, médecin d'Agnès de Faucigny, comtesse de Savoie
+Fl. Guy, médecin à Metz en Lorraine.
+1262 au plus tard : fl. Laurent, barbier à Châlons, en Champagne.
+1262-1264 : fl. Jean Beblequinus, chapelain et médecin du pape Urbain IV, peut-être parent de Jean Hellequin, médecin du roi de France Philippe le Bel.
+1262-1296 ? : fl. Jean, médecin à la cour de Pierre II, comte de Savoie.
+1262-1301 : fl. Félix de Trecis, médecin, neveu du pape Urbain IV, chanoine de Laon.</t>
         </is>
       </c>
     </row>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1262_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1262_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Entre 1262 et 1287 : Zambonino de Gazo (né à une date inconnue), professeur de médecine à Padoue, auteur d'un Tractatus de conservatione sanitatis[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Entre 1262 et 1287 : Zambonino de Gazo (né à une date inconnue), professeur de médecine à Padoue, auteur d'un Tractatus de conservatione sanitatis.</t>
         </is>
       </c>
     </row>
